--- a/outputs-r202/test-c__Clostridia_A.xlsx
+++ b/outputs-r202/test-c__Clostridia_A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
   <si>
     <t>Row</t>
   </si>
@@ -55,7 +55,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -65,14 +65,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -91,44 +107,44 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-44057.220981686129</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>229487.08200628409</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="9" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>183045.94028116838</v>
       </c>
       <c r="C4">
         <v>1</v>

--- a/outputs-r202/test-c__Clostridia_A.xlsx
+++ b/outputs-r202/test-c__Clostridia_A.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Row</t>
-  </si>
-  <si>
-    <t>RUG093.fasta</t>
   </si>
   <si>
     <t>RUG343.fasta</t>
@@ -55,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -65,30 +62,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -98,7 +79,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
@@ -107,19 +88,19 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>-44057.220981686129</v>
@@ -129,8 +110,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>229487.08200628409</v>
@@ -140,8 +121,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
+      <c r="A4" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>183045.94028116838</v>
@@ -150,17 +131,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>